--- a/exel/score2.xlsx
+++ b/exel/score2.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17140" windowWidth="37240" xWindow="1160" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -65,7 +65,9 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
